--- a/Relation.xlsx
+++ b/Relation.xlsx
@@ -411,7 +411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,21 +427,73 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -450,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,6 +510,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,7 +1038,7 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -992,7 +1053,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
@@ -1006,29 +1067,29 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>63</v>
       </c>
     </row>
